--- a/!OLD_MANSURA/Python/HISTORY/Daily/2022-11-28.xlsx
+++ b/!OLD_MANSURA/Python/HISTORY/Daily/2022-11-28.xlsx
@@ -509,17 +509,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>$802.4</t>
+          <t>$801.5999999999999</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$160.48</t>
+          <t>$160.32</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$641.92</t>
+          <t>$641.28</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>foreandr $160.48</t>
+          <t>foreandr $160.32</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1406,32 +1406,32 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Samad 0.36</t>
+          <t>Samad 7.76</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Timithy 0.36</t>
+          <t>Timithy 7.76</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Marvel 0.36</t>
+          <t>Marvel 7.76</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Tully 0.36</t>
+          <t>Tully 7.76</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Rj 0.36</t>
+          <t>Rj 7.76</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Elizabth 0.36</t>
+          <t>Elizabth 7.76</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1676,32 +1676,32 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ladarrius 0.36</t>
+          <t>Ladarrius 7.76</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tereka 0.36</t>
+          <t>Tereka 7.76</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Nitasha 0.36</t>
+          <t>Nitasha 7.76</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Maricruz 0.36</t>
+          <t>Maricruz 7.76</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Chadley 0.36</t>
+          <t>Chadley 7.76</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Nafis 0.36</t>
+          <t>Nafis 7.76</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2399,24 +2399,20 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Seng 0.08</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Valen 0.25</t>
+          <t>Valen 0.28</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Steward 0.25</t>
+          <t>Steward 0.28</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Lyndia 0.25</t>
+          <t>Lyndia 0.28</t>
         </is>
       </c>
     </row>
@@ -2493,37 +2489,37 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Laurice 0.37</t>
+          <t>Laurice -5.97</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Siomara 0.37</t>
+          <t>Siomara -5.97</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Sherrica 0.37</t>
+          <t>Sherrica -5.97</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Jalynn 0.37</t>
+          <t>Jalynn -5.97</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Renna 0.37</t>
+          <t>Renna -5.97</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Keala 0.37</t>
+          <t>Keala -5.97</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Ellsworth 0.37</t>
+          <t>Ellsworth -5.97</t>
         </is>
       </c>
     </row>
@@ -2600,32 +2596,32 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Quinlan 0.36</t>
+          <t>Quinlan 7.76</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Shyann 0.36</t>
+          <t>Shyann 7.76</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Angila 0.36</t>
+          <t>Angila 7.76</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Agostino 0.36</t>
+          <t>Agostino 7.76</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Kamika 0.36</t>
+          <t>Kamika 7.76</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Dessa 0.36</t>
+          <t>Dessa 7.76</t>
         </is>
       </c>
     </row>
@@ -2799,32 +2795,32 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Valen 0.36</t>
+          <t>Valen 7.76</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sherrelle 0.36</t>
+          <t>Sherrelle 7.76</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Nalani 0.36</t>
+          <t>Nalani 7.76</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Kennan 0.36</t>
+          <t>Kennan 7.76</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Jujuan 0.36</t>
+          <t>Jujuan 7.76</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Terez 0.36</t>
+          <t>Terez 7.76</t>
         </is>
       </c>
     </row>
@@ -2855,37 +2851,37 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Noland 0.37</t>
+          <t>Noland -5.97</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Shermaine 0.37</t>
+          <t>Shermaine -5.97</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Henna 0.37</t>
+          <t>Henna -5.97</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Denitra 0.37</t>
+          <t>Denitra -5.97</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Alok 0.37</t>
+          <t>Alok -5.97</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Shakeitha 0.37</t>
+          <t>Shakeitha -5.97</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Michaelene 0.37</t>
+          <t>Michaelene -5.97</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3077,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3089,24 +3085,20 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Rivky 0.08</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Sophy 0.41</t>
+          <t>Sophy 0.46</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Shenia 0.22</t>
+          <t>Shenia 0.24</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Raizy 0.12</t>
+          <t>Raizy 0.14</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3164,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3249,32 +3241,32 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>foreandr 0.36</t>
+          <t>foreandr 7.76</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Shaynna 0.36</t>
+          <t>Shaynna 7.76</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Laketha 0.36</t>
+          <t>Laketha 7.76</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Tauna 0.36</t>
+          <t>Tauna 7.76</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Shanese 0.36</t>
+          <t>Shanese 7.76</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Khang 0.36</t>
+          <t>Khang 7.76</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3433,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3449,34 +3441,30 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Shyann 0.17</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Valen 0.3</t>
+          <t>Valen 0.34</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Shatora 0.3</t>
+          <t>Shatora 0.34</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Kirstyn 0.3</t>
+          <t>Kirstyn 0.34</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Avid 0.3</t>
+          <t>Avid 0.34</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Lebron 0.3</t>
+          <t>Lebron 0.34</t>
         </is>
       </c>
     </row>
@@ -3602,7 +3590,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3610,34 +3598,30 @@
           <t>Timithy</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Matther 0.21</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Sable 0.97</t>
+          <t>Sable 1.08</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sharea 0.49</t>
+          <t>Sharea 0.54</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Kimbely 0.24</t>
+          <t>Kimbely 0.27</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Terilyn 0.12</t>
+          <t>Terilyn 0.14</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Ginia 0.06</t>
+          <t>Ginia 0.07</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4092,32 +4076,32 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Philippa 0.36</t>
+          <t>Philippa 7.76</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Shahara 0.36</t>
+          <t>Shahara 7.76</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Nashira 0.36</t>
+          <t>Nashira 7.76</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Kian 0.36</t>
+          <t>Kian 7.76</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Hernando 0.36</t>
+          <t>Hernando 7.76</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Dezeray 0.36</t>
+          <t>Dezeray 7.76</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4273,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4297,29 +4281,25 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Moise 0.12</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>foreandr 0.29</t>
+          <t>foreandr 0.32</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Satoya 0.29</t>
+          <t>Satoya 0.32</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Kammy 0.29</t>
+          <t>Kammy 0.32</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Danella 0.29</t>
+          <t>Danella 0.32</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4319,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4405,7 +4385,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4413,24 +4393,20 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Rut 0.08</t>
-        </is>
-      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Tyriek 0.25</t>
+          <t>Tyriek 0.28</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sameul 0.25</t>
+          <t>Sameul 0.28</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Rasheida 0.25</t>
+          <t>Rasheida 0.28</t>
         </is>
       </c>
     </row>
@@ -4461,32 +4437,32 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Norvell 0.36</t>
+          <t>Norvell 7.76</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Samanthajo 0.36</t>
+          <t>Samanthajo 7.76</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Krisandra 0.36</t>
+          <t>Krisandra 7.76</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Buffy 0.36</t>
+          <t>Buffy 7.76</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Peng 0.36</t>
+          <t>Peng 7.76</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Kreig 0.36</t>
+          <t>Kreig 7.76</t>
         </is>
       </c>
     </row>
@@ -4674,32 +4650,32 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>foreandr 0.36</t>
+          <t>foreandr 7.76</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rut 0.36</t>
+          <t>Rut 7.76</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Husain 0.36</t>
+          <t>Husain 7.76</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Shella 0.36</t>
+          <t>Shella 7.76</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Nocole 0.36</t>
+          <t>Nocole 7.76</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Eduard 0.36</t>
+          <t>Eduard 7.76</t>
         </is>
       </c>
     </row>
@@ -4872,7 +4848,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ladarrius 0.04</t>
+          <t>Lakendria 0.04</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4913,32 +4889,32 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>foreandr 0.36</t>
+          <t>foreandr 7.76</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Riane 0.36</t>
+          <t>Riane 7.76</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Jenah 0.36</t>
+          <t>Jenah 7.76</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Wil 0.36</t>
+          <t>Wil 7.76</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Gwendolynn 0.36</t>
+          <t>Gwendolynn 7.76</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Dorion 0.36</t>
+          <t>Dorion 7.76</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5036,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5071,7 +5047,7 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Tywana 1.73</t>
+          <t>Tywana 1.72</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5188,37 +5164,37 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Valen 0.37</t>
+          <t>Valen -5.97</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rayne 0.37</t>
+          <t>Rayne -5.97</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Philippa 0.37</t>
+          <t>Philippa -5.97</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Lindsee 0.37</t>
+          <t>Lindsee -5.97</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Tel 0.37</t>
+          <t>Tel -5.97</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Phuoc 0.37</t>
+          <t>Phuoc -5.97</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Kameka 0.37</t>
+          <t>Kameka -5.97</t>
         </is>
       </c>
     </row>
@@ -5558,37 +5534,37 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>foreandr 0.37</t>
+          <t>foreandr -5.97</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Radhika 0.37</t>
+          <t>Radhika -5.97</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Jacorey 0.37</t>
+          <t>Jacorey -5.97</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Candas 0.37</t>
+          <t>Candas -5.97</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Beverley 0.37</t>
+          <t>Beverley -5.97</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Shawntelle 0.37</t>
+          <t>Shawntelle -5.97</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Cricket 0.37</t>
+          <t>Cricket -5.97</t>
         </is>
       </c>
     </row>
@@ -5766,32 +5742,32 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Nitasha 0.36</t>
+          <t>Nitasha 7.76</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Perrin 0.36</t>
+          <t>Perrin 7.76</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Marlea 0.36</t>
+          <t>Marlea 7.76</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Joane 0.36</t>
+          <t>Joane 7.76</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Heston 0.36</t>
+          <t>Heston 7.76</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Gaelan 0.36</t>
+          <t>Gaelan 7.76</t>
         </is>
       </c>
     </row>
@@ -5918,32 +5894,32 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Naida 0.36</t>
+          <t>Naida 7.76</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Orlanda 0.36</t>
+          <t>Orlanda 7.76</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Catherina 0.36</t>
+          <t>Catherina 7.76</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Venice 0.36</t>
+          <t>Venice 7.76</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Leeandra 0.36</t>
+          <t>Leeandra 7.76</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Griselle 0.36</t>
+          <t>Griselle 7.76</t>
         </is>
       </c>
     </row>
@@ -6024,7 +6000,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6146,32 +6122,32 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Laurinda 0.36</t>
+          <t>Laurinda 7.76</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Norvell 0.36</t>
+          <t>Norvell 7.76</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Lenee 0.36</t>
+          <t>Lenee 7.76</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Jetta 0.36</t>
+          <t>Jetta 7.76</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Donzell 0.36</t>
+          <t>Donzell 7.76</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Sayed 0.36</t>
+          <t>Sayed 7.76</t>
         </is>
       </c>
     </row>
@@ -6437,37 +6413,37 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>foreandr 0.37</t>
+          <t>foreandr -5.97</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Nekeisha 0.37</t>
+          <t>Nekeisha -5.97</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Maghen 0.37</t>
+          <t>Maghen -5.97</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Lanise 0.37</t>
+          <t>Lanise -5.97</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Hermes 0.37</t>
+          <t>Hermes -5.97</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Kristia 0.37</t>
+          <t>Kristia -5.97</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Fredrica 0.37</t>
+          <t>Fredrica -5.97</t>
         </is>
       </c>
     </row>
@@ -6498,32 +6474,32 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Telly 0.36</t>
+          <t>Telly 7.76</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Neale 0.36</t>
+          <t>Neale 7.76</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Laranda 0.36</t>
+          <t>Laranda 7.76</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Jamarl 0.36</t>
+          <t>Jamarl 7.76</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Jeffifer 0.36</t>
+          <t>Jeffifer 7.76</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Jamiee 0.36</t>
+          <t>Jamiee 7.76</t>
         </is>
       </c>
     </row>
@@ -6661,32 +6637,32 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Sharri 0.36</t>
+          <t>Sharri 7.76</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Natavia 0.36</t>
+          <t>Natavia 7.76</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Marialuisa 0.36</t>
+          <t>Marialuisa 7.76</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Katieann 0.36</t>
+          <t>Katieann 7.76</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Shardee 0.36</t>
+          <t>Shardee 7.76</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Sanam 0.36</t>
+          <t>Sanam 7.76</t>
         </is>
       </c>
     </row>
@@ -6763,37 +6739,37 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Micaella 0.37</t>
+          <t>Micaella -5.97</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Natale 0.37</t>
+          <t>Natale -5.97</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Monchel 0.37</t>
+          <t>Monchel -5.97</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Carma 0.37</t>
+          <t>Carma -5.97</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Shaquitta 0.37</t>
+          <t>Shaquitta -5.97</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Ronnisha 0.37</t>
+          <t>Ronnisha -5.97</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Fatina 0.37</t>
+          <t>Fatina -5.97</t>
         </is>
       </c>
     </row>
@@ -6972,32 +6948,32 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Philipp 0.36</t>
+          <t>Philipp 7.76</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Naeemah 0.36</t>
+          <t>Naeemah 7.76</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Atavia 0.36</t>
+          <t>Atavia 7.76</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Teasha 0.36</t>
+          <t>Teasha 7.76</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Ilyse 0.36</t>
+          <t>Ilyse 7.76</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Daphnee 0.36</t>
+          <t>Daphnee 7.76</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7090,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7125,7 +7101,7 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Tramel 1.73</t>
+          <t>Tramel 1.72</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7283,32 +7259,32 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Kyria 0.36</t>
+          <t>Kyria 7.76</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Meyer 0.36</t>
+          <t>Meyer 7.76</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Lady 0.36</t>
+          <t>Lady 7.76</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Cesilia 0.36</t>
+          <t>Cesilia 7.76</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Calisha 0.36</t>
+          <t>Calisha 7.76</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Gwynne 0.36</t>
+          <t>Gwynne 7.76</t>
         </is>
       </c>
     </row>
@@ -7374,7 +7350,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7690,7 +7666,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7701,7 +7677,7 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Monchel 1.73</t>
+          <t>Monchel 1.72</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -8098,7 +8074,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8106,39 +8082,35 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Mellanie 0.21</t>
-        </is>
-      </c>
+      <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Roshell 0.32</t>
+          <t>Roshell 7.76</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Ludivina 0.32</t>
+          <t>Ludivina 7.76</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Vana 0.32</t>
+          <t>Vana 7.76</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Kollin 0.32</t>
+          <t>Kollin 7.76</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Kearra 0.32</t>
+          <t>Kearra 7.76</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Estanislao 0.32</t>
+          <t>Estanislao 7.76</t>
         </is>
       </c>
     </row>
@@ -8459,7 +8431,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8467,29 +8439,25 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Meyer 0.12</t>
-        </is>
-      </c>
+      <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Valen 0.29</t>
+          <t>Valen 0.32</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Lequita 0.29</t>
+          <t>Lequita 0.32</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Mayda 0.29</t>
+          <t>Mayda 0.32</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Jeremian 0.29</t>
+          <t>Jeremian 0.32</t>
         </is>
       </c>
     </row>
@@ -8561,37 +8529,37 @@
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Valen 0.37</t>
+          <t>Valen -5.97</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Lekia 0.37</t>
+          <t>Lekia -5.97</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Lavonte 0.37</t>
+          <t>Lavonte -5.97</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Lakeita 0.37</t>
+          <t>Lakeita -5.97</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Vina 0.37</t>
+          <t>Vina -5.97</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Phallon 0.37</t>
+          <t>Phallon -5.97</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>Halima 0.37</t>
+          <t>Halima -5.97</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8579,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8830,7 +8798,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8838,29 +8806,25 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Rosaline 0.12</t>
-        </is>
-      </c>
+      <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Valen 0.29</t>
+          <t>Valen 0.32</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Laurice 0.29</t>
+          <t>Laurice 0.32</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Trapper 0.29</t>
+          <t>Trapper 0.32</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Rea 0.29</t>
+          <t>Rea 0.32</t>
         </is>
       </c>
     </row>
@@ -9018,7 +8982,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9026,29 +8990,25 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Mahala 0.12</t>
-        </is>
-      </c>
+      <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Rekeisha 0.59</t>
+          <t>Rekeisha 0.66</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Lashonta 0.3</t>
+          <t>Lashonta 0.34</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Shastina 0.16</t>
+          <t>Shastina 0.18</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Luci 0.09</t>
+          <t>Luci 0.1</t>
         </is>
       </c>
     </row>
@@ -9079,37 +9039,37 @@
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Nary 0.37</t>
+          <t>Nary -5.97</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Laquinton 0.37</t>
+          <t>Laquinton -5.97</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Jannell 0.37</t>
+          <t>Jannell -5.97</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Oziel 0.37</t>
+          <t>Oziel -5.97</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Nyasia 0.37</t>
+          <t>Nyasia -5.97</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Mariette 0.37</t>
+          <t>Mariette -5.97</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Ephriam 0.37</t>
+          <t>Ephriam -5.97</t>
         </is>
       </c>
     </row>
@@ -9563,7 +9523,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -9571,34 +9531,30 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Rahmel 0.17</t>
-        </is>
-      </c>
+      <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Valen 0.3</t>
+          <t>Valen 0.34</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Kelleen 0.3</t>
+          <t>Kelleen 0.34</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Hillarie 0.3</t>
+          <t>Hillarie 0.34</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Clarrisa 0.3</t>
+          <t>Clarrisa 0.34</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Antoniette 0.3</t>
+          <t>Antoniette 0.34</t>
         </is>
       </c>
     </row>
@@ -9875,7 +9831,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -9883,29 +9839,25 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Naida 0.12</t>
-        </is>
-      </c>
+      <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr">
         <is>
-          <t>foreandr 0.29</t>
+          <t>foreandr 0.32</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Joye 0.29</t>
+          <t>Joye 0.32</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Darran 0.29</t>
+          <t>Darran 0.32</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Dai 0.29</t>
+          <t>Dai 0.32</t>
         </is>
       </c>
     </row>
@@ -10175,7 +10127,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Melena 0.12</t>
+          <t>Rayshun 0.12</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -10307,7 +10259,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10315,19 +10267,15 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Orlanda 0.04</t>
-        </is>
-      </c>
+      <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Shakeisha 0.19</t>
+          <t>Shakeisha 0.21</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Hellen 0.19</t>
+          <t>Hellen 0.21</t>
         </is>
       </c>
     </row>
@@ -10520,7 +10468,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Tomy 0.08</t>
+          <t>Raya 0.08</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -10555,7 +10503,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -10563,24 +10511,20 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Shatora 0.08</t>
-        </is>
-      </c>
+      <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr">
         <is>
-          <t>foreandr 0.25</t>
+          <t>foreandr 0.28</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Georgie 0.25</t>
+          <t>Georgie 0.28</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Constantino 0.25</t>
+          <t>Constantino 0.28</t>
         </is>
       </c>
     </row>
@@ -10600,7 +10544,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -10608,19 +10552,15 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Majid 0.04</t>
-        </is>
-      </c>
+      <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Shauntell 0.19</t>
+          <t>Shauntell 0.21</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Flannery 0.19</t>
+          <t>Flannery 0.21</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10631,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -10699,29 +10639,25 @@
           <t>Tylan</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Lavonte 0.12</t>
-        </is>
-      </c>
+      <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Natesha 0.59</t>
+          <t>Natesha 0.66</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Ellice 0.3</t>
+          <t>Ellice 0.34</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Calan 0.16</t>
+          <t>Calan 0.18</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Corene 0.09</t>
+          <t>Corene 0.1</t>
         </is>
       </c>
     </row>
@@ -10777,7 +10713,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -10785,34 +10721,30 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Tyeasha 0.17</t>
-        </is>
-      </c>
+      <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Valen 0.3</t>
+          <t>Valen 0.34</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Donovon 0.3</t>
+          <t>Donovon 0.34</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Dierdre 0.3</t>
+          <t>Dierdre 0.34</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Terrina 0.3</t>
+          <t>Terrina 0.34</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Jad 0.3</t>
+          <t>Jad 0.34</t>
         </is>
       </c>
     </row>
@@ -10832,7 +10764,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -10840,29 +10772,25 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Laurice 0.12</t>
-        </is>
-      </c>
+      <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Natale 0.29</t>
+          <t>Natale 0.32</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Donnette 0.29</t>
+          <t>Donnette 0.32</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Cystal 0.29</t>
+          <t>Cystal 0.32</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Cushena 0.29</t>
+          <t>Cushena 0.32</t>
         </is>
       </c>
     </row>
@@ -10892,7 +10820,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Tarynn 0.08</t>
+          <t>Tedd 0.08</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -10973,7 +10901,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -10981,34 +10909,30 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Steward 0.17</t>
-        </is>
-      </c>
+      <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Valen 0.3</t>
+          <t>Valen 0.34</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Dat 0.3</t>
+          <t>Dat 0.34</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Aimie 0.3</t>
+          <t>Aimie 0.34</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Rosevelt 0.3</t>
+          <t>Rosevelt 0.34</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Eda 0.3</t>
+          <t>Eda 0.34</t>
         </is>
       </c>
     </row>
@@ -11028,7 +10952,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11278,7 +11202,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Roshell 0.08</t>
+          <t>Shallon 0.08</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -11349,7 +11273,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -11357,19 +11281,15 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sable 0.04</t>
-        </is>
-      </c>
+      <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Timithy 0.19</t>
+          <t>Timithy 0.21</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Calvina 0.19</t>
+          <t>Calvina 0.21</t>
         </is>
       </c>
     </row>
@@ -11389,7 +11309,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -11397,24 +11317,20 @@
           <t>Tashawn</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Maghen 0.08</t>
-        </is>
-      </c>
+      <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Shahid 0.41</t>
+          <t>Shahid 0.46</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Caila 0.22</t>
+          <t>Caila 0.24</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Jenniferann 0.12</t>
+          <t>Jenniferann 0.14</t>
         </is>
       </c>
     </row>
@@ -11525,7 +11441,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -11533,34 +11449,30 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Philippa 0.17</t>
-        </is>
-      </c>
+      <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Tedd 0.77</t>
+          <t>Tedd 0.87</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Beckie 0.39</t>
+          <t>Beckie 0.44</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Travion 0.2</t>
+          <t>Travion 0.22</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Ivorie 0.1</t>
+          <t>Ivorie 0.11</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Fradel 0.05</t>
+          <t>Fradel 0.06</t>
         </is>
       </c>
     </row>
@@ -11770,32 +11682,32 @@
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Rayshun 0.36</t>
+          <t>Rayshun 7.76</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Anise 0.36</t>
+          <t>Anise 7.76</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Amisha 0.36</t>
+          <t>Amisha 7.76</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Shraga 0.36</t>
+          <t>Shraga 7.76</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Rakeisha 0.36</t>
+          <t>Rakeisha 7.76</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Mirtha 0.36</t>
+          <t>Mirtha 7.76</t>
         </is>
       </c>
     </row>
@@ -12122,7 +12034,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -12130,24 +12042,20 @@
           <t>foreandr</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Klarissa 0.08</t>
-        </is>
-      </c>
+      <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Rahiem 0.41</t>
+          <t>Rahiem 0.46</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Yamile 0.22</t>
+          <t>Yamile 0.24</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Kindel 0.12</t>
+          <t>Kindel 0.14</t>
         </is>
       </c>
     </row>
@@ -12249,7 +12157,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -12257,34 +12165,30 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Reannon 0.17</t>
-        </is>
-      </c>
+      <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Swati 0.3</t>
+          <t>Swati 0.34</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Wali 0.3</t>
+          <t>Wali 0.34</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Tata 0.3</t>
+          <t>Tata 0.34</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Sharna 0.3</t>
+          <t>Sharna 0.34</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Keishia 0.3</t>
+          <t>Keishia 0.34</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12300,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -12404,29 +12308,25 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Lakeita 0.12</t>
-        </is>
-      </c>
+      <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr">
         <is>
-          <t>foreandr 0.29</t>
+          <t>foreandr 0.32</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Varonica 0.29</t>
+          <t>Varonica 0.32</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Tarran 0.29</t>
+          <t>Tarran 0.32</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Nyeshia 0.29</t>
+          <t>Nyeshia 0.32</t>
         </is>
       </c>
     </row>
@@ -12487,7 +12387,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -12495,24 +12395,20 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Kyria 0.08</t>
-        </is>
-      </c>
+      <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Shimeka 0.41</t>
+          <t>Shimeka 0.46</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Tresha 0.22</t>
+          <t>Tresha 0.24</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Eberardo 0.12</t>
+          <t>Eberardo 0.14</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13076,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -13188,24 +13084,20 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Klaus 0.08</t>
-        </is>
-      </c>
+      <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr">
         <is>
-          <t>foreandr 0.25</t>
+          <t>foreandr 0.28</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Shemica 0.25</t>
+          <t>Shemica 0.28</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Czarina 0.25</t>
+          <t>Czarina 0.28</t>
         </is>
       </c>
     </row>
@@ -13501,7 +13393,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -13509,24 +13401,20 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Oracio 0.08</t>
-        </is>
-      </c>
+      <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Shamon 0.41</t>
+          <t>Shamon 0.46</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Ronee 0.22</t>
+          <t>Ronee 0.24</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Lamond 0.12</t>
+          <t>Lamond 0.14</t>
         </is>
       </c>
     </row>
@@ -13546,7 +13434,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -13554,19 +13442,15 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Maire 0.04</t>
-        </is>
-      </c>
+      <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Shalandra 0.19</t>
+          <t>Shalandra 0.21</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Renne 0.19</t>
+          <t>Renne 0.21</t>
         </is>
       </c>
     </row>
@@ -13709,7 +13593,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -13717,24 +13601,20 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Makala 0.08</t>
-        </is>
-      </c>
+      <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr">
         <is>
-          <t>foreandr 0.25</t>
+          <t>foreandr 0.28</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Philemon 0.25</t>
+          <t>Philemon 0.28</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Latron 0.25</t>
+          <t>Latron 0.28</t>
         </is>
       </c>
     </row>
@@ -13800,7 +13680,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -13808,24 +13688,20 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Matthieu 0.08</t>
-        </is>
-      </c>
+      <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Shean 0.41</t>
+          <t>Shean 0.46</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Nichoel 0.22</t>
+          <t>Nichoel 0.24</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Katrese 0.12</t>
+          <t>Katrese 0.14</t>
         </is>
       </c>
     </row>
@@ -13932,7 +13808,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -13940,34 +13816,30 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Lacrystal 0.17</t>
-        </is>
-      </c>
+      <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Samanthajo 0.3</t>
+          <t>Samanthajo 0.34</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Marcanthony 0.3</t>
+          <t>Marcanthony 0.34</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Kylea 0.3</t>
+          <t>Kylea 0.34</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Kaileen 0.3</t>
+          <t>Kaileen 0.34</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Frederico 0.3</t>
+          <t>Frederico 0.34</t>
         </is>
       </c>
     </row>
@@ -13987,7 +13859,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -13995,24 +13867,20 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Natale 0.08</t>
-        </is>
-      </c>
+      <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Valen 0.25</t>
+          <t>Valen 0.28</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Maija 0.25</t>
+          <t>Maija 0.28</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Fernandez 0.25</t>
+          <t>Fernandez 0.28</t>
         </is>
       </c>
     </row>
@@ -14252,7 +14120,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Sydnie 0.04</t>
+          <t>Tya 0.04</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -14282,7 +14150,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -14290,24 +14158,20 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>Kirstyn 0.08</t>
-        </is>
-      </c>
+      <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Tya 0.41</t>
+          <t>Tya 0.46</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Kensey 0.22</t>
+          <t>Kensey 0.24</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Katerine 0.12</t>
+          <t>Katerine 0.14</t>
         </is>
       </c>
     </row>
@@ -14327,7 +14191,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -14335,19 +14199,15 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>Nasreen 0.04</t>
-        </is>
-      </c>
+      <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Tocara 0.23</t>
+          <t>Tocara 0.26</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Jessicaann 0.14</t>
+          <t>Jessicaann 0.15</t>
         </is>
       </c>
     </row>
@@ -14449,7 +14309,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -14457,19 +14317,15 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>Sharea 0.04</t>
-        </is>
-      </c>
+      <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Tyeesha 0.23</t>
+          <t>Tyeesha 0.26</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Deleon 0.14</t>
+          <t>Deleon 0.15</t>
         </is>
       </c>
     </row>
@@ -14489,7 +14345,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -14497,19 +14353,15 @@
           <t>Valen</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>Sameul 0.04</t>
-        </is>
-      </c>
+      <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Thi 0.23</t>
+          <t>Thi 0.26</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Deanglo 0.14</t>
+          <t>Deanglo 0.15</t>
         </is>
       </c>
     </row>
